--- a/data/trans_orig/P05B_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05B_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21654</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13749</v>
+        <v>13879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31765</v>
+        <v>32693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03712129758479043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02357105536424387</v>
+        <v>0.0237937635524322</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05445520438803853</v>
+        <v>0.05604664276611233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -765,19 +765,19 @@
         <v>75585</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60691</v>
+        <v>61394</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94621</v>
+        <v>93694</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08194942719761553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06580214391145264</v>
+        <v>0.06656390480780014</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1025885812940194</v>
+        <v>0.1015836952904597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>96</v>
@@ -786,19 +786,19 @@
         <v>97238</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79876</v>
+        <v>80146</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118236</v>
+        <v>118491</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06458211705715454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05305098645158625</v>
+        <v>0.05323020077815269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.078527934509528</v>
+        <v>0.07869737646481614</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>561666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>551555</v>
+        <v>550627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>569571</v>
+        <v>569441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9628787024152096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9455447956119615</v>
+        <v>0.9439533572338875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9764289446357561</v>
+        <v>0.9762062364475678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>811</v>
@@ -836,19 +836,19 @@
         <v>846748</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>827712</v>
+        <v>828639</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>861642</v>
+        <v>860939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9180505728023844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8974114187059806</v>
+        <v>0.8984163047095403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9341978560885473</v>
+        <v>0.9334360951921998</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1362</v>
@@ -857,19 +857,19 @@
         <v>1408415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1387417</v>
+        <v>1387162</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1425777</v>
+        <v>1425507</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9354178829428454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9214720654904712</v>
+        <v>0.9213026235351839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9469490135484134</v>
+        <v>0.9467697992218473</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>40242</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28903</v>
+        <v>28480</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53703</v>
+        <v>53401</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03736684178470054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02683813687124775</v>
+        <v>0.0264454364552865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04986615149002888</v>
+        <v>0.04958582369477918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -982,19 +982,19 @@
         <v>37689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27223</v>
+        <v>26609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50269</v>
+        <v>51997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03563874614398747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02574217166518223</v>
+        <v>0.02516109380330597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04753439727446517</v>
+        <v>0.04916807207759105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -1003,19 +1003,19 @@
         <v>77931</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62374</v>
+        <v>61876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97639</v>
+        <v>96993</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03651065154382219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02922221117158586</v>
+        <v>0.02898864298784349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04574351700353896</v>
+        <v>0.04544072952432315</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1036707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1023246</v>
+        <v>1023548</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1048046</v>
+        <v>1048469</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9626331582152995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9501338485099708</v>
+        <v>0.9504141763052208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9731618631287523</v>
+        <v>0.9735545635447135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>991</v>
@@ -1053,19 +1053,19 @@
         <v>1019849</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1007269</v>
+        <v>1005541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1030315</v>
+        <v>1030929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9643612538560126</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9524656027255348</v>
+        <v>0.9508319279224093</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9742578283348178</v>
+        <v>0.9748389061966942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2005</v>
@@ -1074,19 +1074,19 @@
         <v>2056555</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2036847</v>
+        <v>2037493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2072112</v>
+        <v>2072610</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9634893484561778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.954256482996461</v>
+        <v>0.9545592704756769</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9707777888284143</v>
+        <v>0.9710113570121566</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>21926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13680</v>
+        <v>13938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33506</v>
+        <v>34636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01954889310756017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01219728885448867</v>
+        <v>0.01242737605265383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02987385542896921</v>
+        <v>0.03088078524726063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1199,19 +1199,19 @@
         <v>30684</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20606</v>
+        <v>20915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43334</v>
+        <v>42387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0309219824119032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02076541934004782</v>
+        <v>0.02107696267786616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04366941072869732</v>
+        <v>0.04271504543506066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1220,19 +1220,19 @@
         <v>52610</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40318</v>
+        <v>39289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69096</v>
+        <v>68044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02488767004616192</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01907291794916345</v>
+        <v>0.01858610800823808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03268625327947714</v>
+        <v>0.03218877031260096</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1099668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1088088</v>
+        <v>1086958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1107914</v>
+        <v>1107656</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9804511068924399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9701261445710307</v>
+        <v>0.9691192147527392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9878027111455113</v>
+        <v>0.9875726239473461</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>951</v>
@@ -1270,19 +1270,19 @@
         <v>961632</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>948982</v>
+        <v>949929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>971710</v>
+        <v>971401</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9690780175880968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9563305892713027</v>
+        <v>0.9572849545649394</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9792345806599522</v>
+        <v>0.9789230373221338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2033</v>
@@ -1291,19 +1291,19 @@
         <v>2061300</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2044814</v>
+        <v>2045866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2073592</v>
+        <v>2074621</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9751123299538381</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9673137467205229</v>
+        <v>0.9678112296873991</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9809270820508366</v>
+        <v>0.981413891991762</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>12536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6267</v>
+        <v>6410</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21773</v>
+        <v>22187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02817950570647539</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.014086957003779</v>
+        <v>0.01440860849063627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04894613407984649</v>
+        <v>0.04987510451566689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>13263</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7918</v>
+        <v>7165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22106</v>
+        <v>21673</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0388778391893819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02320793647477867</v>
+        <v>0.02100241292260098</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06479712188952504</v>
+        <v>0.06352914809666264</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1437,19 +1437,19 @@
         <v>25799</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16516</v>
+        <v>16517</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36859</v>
+        <v>37355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03282302014417102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02101301952731276</v>
+        <v>0.02101412488130656</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04689376233149717</v>
+        <v>0.04752540055960893</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>432310</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>423073</v>
+        <v>422659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>438579</v>
+        <v>438436</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9718204942935246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9510538659201535</v>
+        <v>0.9501248954843331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985913042996221</v>
+        <v>0.9855913915093637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -1487,19 +1487,19 @@
         <v>327895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319052</v>
+        <v>319485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333240</v>
+        <v>333993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9611221608106181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9352028781104748</v>
+        <v>0.9364708519033371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9767920635252212</v>
+        <v>0.978997587077399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>749</v>
@@ -1508,19 +1508,19 @@
         <v>760205</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749145</v>
+        <v>748649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>769488</v>
+        <v>769487</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.967176979855829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9531062376685028</v>
+        <v>0.9524745994403909</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9789869804726872</v>
+        <v>0.9789858751186934</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>96357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78797</v>
+        <v>75979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116257</v>
+        <v>119651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02986238691905519</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02442012620945501</v>
+        <v>0.02354700844827416</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03602964167092616</v>
+        <v>0.03708133116909564</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>154</v>
@@ -1633,19 +1633,19 @@
         <v>157222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>133156</v>
+        <v>133276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>184351</v>
+        <v>183180</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04745109995837555</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04018788437770477</v>
+        <v>0.04022405163825701</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05563893447100339</v>
+        <v>0.05528552297761066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>248</v>
@@ -1654,19 +1654,19 @@
         <v>253579</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>224364</v>
+        <v>225440</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>289446</v>
+        <v>288079</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03877324107383668</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03430612010932047</v>
+        <v>0.03447066708234354</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04425742699689945</v>
+        <v>0.04404833709859769</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3130352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3110452</v>
+        <v>3107058</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3147912</v>
+        <v>3150730</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9701376130809448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9639703583290736</v>
+        <v>0.9629186688309048</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9755798737905449</v>
+        <v>0.9764529915517263</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3079</v>
@@ -1704,19 +1704,19 @@
         <v>3156123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3128994</v>
+        <v>3130165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3180189</v>
+        <v>3180069</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9525489000416244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9443610655289966</v>
+        <v>0.9447144770223892</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9598121156222952</v>
+        <v>0.9597759483617427</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6149</v>
@@ -1725,19 +1725,19 @@
         <v>6286475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6250608</v>
+        <v>6251975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6315690</v>
+        <v>6314614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9612267589261633</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9557425730031005</v>
+        <v>0.9559516629014024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9656938798906796</v>
+        <v>0.9655293329176565</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>28983</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19382</v>
+        <v>18977</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41430</v>
+        <v>42072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02776369080161456</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01856597102979394</v>
+        <v>0.01817809708604626</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03968645068911809</v>
+        <v>0.04030105467798849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2090,19 +2090,19 @@
         <v>26457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17253</v>
+        <v>17977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38828</v>
+        <v>38900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02371478525081754</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01546479265652688</v>
+        <v>0.01611338375750809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03480393171451913</v>
+        <v>0.03486801660401073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -2111,19 +2111,19 @@
         <v>55440</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41539</v>
+        <v>41918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73443</v>
+        <v>72859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02567202718131814</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01923503254403498</v>
+        <v>0.01941015919553891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03400838069903803</v>
+        <v>0.03373796458689588</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1014952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1002505</v>
+        <v>1001863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1024553</v>
+        <v>1024958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9722363091983854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9603135493108821</v>
+        <v>0.9596989453220115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9814340289702062</v>
+        <v>0.9818219029139538</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1003</v>
@@ -2161,19 +2161,19 @@
         <v>1089174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1076803</v>
+        <v>1076731</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1098378</v>
+        <v>1097654</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9762852147491825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9651960682854808</v>
+        <v>0.9651319833959893</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9845352073434731</v>
+        <v>0.983886616242492</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1955</v>
@@ -2182,19 +2182,19 @@
         <v>2104126</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2086123</v>
+        <v>2086707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2118027</v>
+        <v>2117648</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9743279728186819</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9659916193009619</v>
+        <v>0.966262035413104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.980764967455965</v>
+        <v>0.980589840804461</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>8666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3910</v>
+        <v>3808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18696</v>
+        <v>17126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008922463971885784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004026072771404592</v>
+        <v>0.003920681572771395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01924926453320406</v>
+        <v>0.01763324942757076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2307,19 +2307,19 @@
         <v>20066</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11757</v>
+        <v>11872</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30895</v>
+        <v>31234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01847794673912194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01082618896609208</v>
+        <v>0.01093260002766104</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02844965045301373</v>
+        <v>0.02876113613248652</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2328,19 +2328,19 @@
         <v>28732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18149</v>
+        <v>18585</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42549</v>
+        <v>41282</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01396664718802774</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008822392411987933</v>
+        <v>0.009034031622392007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02068319145561497</v>
+        <v>0.02006716906612183</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>962572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>952542</v>
+        <v>954112</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>967328</v>
+        <v>967430</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9910775360281142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807507354667956</v>
+        <v>0.9823667505724291</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9959739272285953</v>
+        <v>0.9960793184272286</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>994</v>
@@ -2378,19 +2378,19 @@
         <v>1065897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1055068</v>
+        <v>1054729</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1074206</v>
+        <v>1074091</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.981522053260878</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9715503495469862</v>
+        <v>0.9712388638675135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9891738110339079</v>
+        <v>0.9890673999723388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1904</v>
@@ -2399,19 +2399,19 @@
         <v>2028469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2014652</v>
+        <v>2015919</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2039052</v>
+        <v>2038616</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9860333528119722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9793168085443851</v>
+        <v>0.9799328309338782</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9911776075880121</v>
+        <v>0.990965968377608</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>11266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6077</v>
+        <v>5998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19494</v>
+        <v>19822</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01283240827195916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006921945342869757</v>
+        <v>0.006831911465004114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02220547967852238</v>
+        <v>0.02257842334144812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2524,19 +2524,19 @@
         <v>6060</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2092</v>
+        <v>2160</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13268</v>
+        <v>13186</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006943656329031861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002397626155358884</v>
+        <v>0.002475609441912908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01520302225021128</v>
+        <v>0.01510980883678176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2545,19 +2545,19 @@
         <v>17325</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10362</v>
+        <v>11043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27210</v>
+        <v>27597</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009896803312522707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005918963328006299</v>
+        <v>0.006308052575367415</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01554346222885613</v>
+        <v>0.01576415924813236</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>866644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>858416</v>
+        <v>858088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>871833</v>
+        <v>871912</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9871675917280408</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9777945203214776</v>
+        <v>0.9774215766585518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9930780546571303</v>
+        <v>0.9931680885349959</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>812</v>
@@ -2595,19 +2595,19 @@
         <v>866635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>859427</v>
+        <v>859509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>870603</v>
+        <v>870535</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9930563436709682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9847969777497887</v>
+        <v>0.984890191163218</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9976023738446411</v>
+        <v>0.9975243905580863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1624</v>
@@ -2616,19 +2616,19 @@
         <v>1733280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1723395</v>
+        <v>1723008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1740243</v>
+        <v>1739562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9901031966874773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9844565377711441</v>
+        <v>0.9842358407518678</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9940810366719939</v>
+        <v>0.9936919474246327</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>5747</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1880</v>
+        <v>1910</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13900</v>
+        <v>13823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01144658910577833</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003743945049643949</v>
+        <v>0.003804707840939145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02768448981790857</v>
+        <v>0.02753169038040224</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -2741,19 +2741,19 @@
         <v>4141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10366</v>
+        <v>10743</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009166283206599067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002281677884065227</v>
+        <v>0.002303803195972118</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02294761257318368</v>
+        <v>0.02378218882541957</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -2762,19 +2762,19 @@
         <v>9888</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4821</v>
+        <v>4806</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18708</v>
+        <v>17884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01036665288210868</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00505458100810175</v>
+        <v>0.005039266056391358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01961470385439242</v>
+        <v>0.01875077368854938</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>496339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>488186</v>
+        <v>488263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500206</v>
+        <v>500176</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9885534108942217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9723155101820914</v>
+        <v>0.9724683096195978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9962560549503561</v>
+        <v>0.9961952921590609</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>407</v>
@@ -2812,19 +2812,19 @@
         <v>447570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>441345</v>
+        <v>440968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>450680</v>
+        <v>450670</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9908337167934009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9770523874268162</v>
+        <v>0.9762178111745803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9977183221159347</v>
+        <v>0.9976961968040279</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>862</v>
@@ -2833,19 +2833,19 @@
         <v>943909</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>935089</v>
+        <v>935913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>948976</v>
+        <v>948991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9896333471178913</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9803852961456075</v>
+        <v>0.9812492263114506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9949454189918983</v>
+        <v>0.9949607339436086</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>54662</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41089</v>
+        <v>40343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72645</v>
+        <v>71803</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01609999197470296</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01210226677548335</v>
+        <v>0.01188241924340419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02139663732669218</v>
+        <v>0.02114854401628998</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -2958,19 +2958,19 @@
         <v>56724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41983</v>
+        <v>43075</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73383</v>
+        <v>72843</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01608721530429429</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01190676229849032</v>
+        <v>0.01221635917595356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02081206370029018</v>
+        <v>0.02065871079143788</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -2979,19 +2979,19 @@
         <v>111386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91181</v>
+        <v>92209</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135508</v>
+        <v>136116</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01609348287988074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01317426014239712</v>
+        <v>0.01332271183056033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01957878146309357</v>
+        <v>0.01966668439412354</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3340506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3322523</v>
+        <v>3323365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3354079</v>
+        <v>3354825</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9839000080252971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9786033626733078</v>
+        <v>0.97885145598371</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9878977332245167</v>
+        <v>0.9881175807565958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3216</v>
@@ -3029,19 +3029,19 @@
         <v>3469276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3452617</v>
+        <v>3453157</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3484017</v>
+        <v>3482925</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9839127846957058</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9791879362997099</v>
+        <v>0.9793412892085621</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9880932377015096</v>
+        <v>0.9877836408240465</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6345</v>
@@ -3050,19 +3050,19 @@
         <v>6809783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6785661</v>
+        <v>6785053</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6829988</v>
+        <v>6828960</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9839065171201192</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9804212185369063</v>
+        <v>0.9803333156058764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9868257398576028</v>
+        <v>0.9866772881694396</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>22896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14909</v>
+        <v>13749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35470</v>
+        <v>35957</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02036181704935509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01325866165653099</v>
+        <v>0.01222751165164158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03154477849659722</v>
+        <v>0.03197778199059514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3415,19 +3415,19 @@
         <v>26225</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16708</v>
+        <v>17571</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38561</v>
+        <v>36966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02087739216968874</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01330069099951344</v>
+        <v>0.01398780626419557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03069764820852404</v>
+        <v>0.02942764430826859</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -3436,19 +3436,19 @@
         <v>49121</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35365</v>
+        <v>36677</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64874</v>
+        <v>64511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02063386685647715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01485534782555256</v>
+        <v>0.01540648961945818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0272513982678826</v>
+        <v>0.0270985787982985</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1101546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1088972</v>
+        <v>1088485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1109533</v>
+        <v>1110693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9796381829506449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9684552215034028</v>
+        <v>0.9680222180094047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.986741338343469</v>
+        <v>0.9877724883483583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1160</v>
@@ -3486,19 +3486,19 @@
         <v>1229925</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1217589</v>
+        <v>1219184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1239442</v>
+        <v>1238579</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9791226078303112</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9693023517914764</v>
+        <v>0.9705723556917315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9866993090004867</v>
+        <v>0.9860121937358045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2203</v>
@@ -3507,19 +3507,19 @@
         <v>2331471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2315718</v>
+        <v>2316081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2345227</v>
+        <v>2343915</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9793661331435228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9727486017321169</v>
+        <v>0.9729014212017016</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9851446521744474</v>
+        <v>0.984593510380542</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>13818</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7820</v>
+        <v>7585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24240</v>
+        <v>23142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0152189591971537</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008613145308624061</v>
+        <v>0.008353819012745135</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02669692292100616</v>
+        <v>0.02548760495014779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -3632,19 +3632,19 @@
         <v>19878</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13040</v>
+        <v>12303</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32838</v>
+        <v>32545</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01983578323865634</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0130127484128034</v>
+        <v>0.01227691286861767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03276928265076488</v>
+        <v>0.03247647870006842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -3653,19 +3653,19 @@
         <v>33696</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23833</v>
+        <v>23417</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47107</v>
+        <v>48120</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01764115802729187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01247766558264782</v>
+        <v>0.01225951275075762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02466219717003917</v>
+        <v>0.02519279768593378</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>894142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>883720</v>
+        <v>884818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>900140</v>
+        <v>900375</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9847810408028463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9733030770789942</v>
+        <v>0.9745123950498522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.991386854691376</v>
+        <v>0.9916461809872549</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>929</v>
@@ -3703,19 +3703,19 @@
         <v>982233</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>969273</v>
+        <v>969566</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>989071</v>
+        <v>989808</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9801642167613437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.967230717349235</v>
+        <v>0.9675235212999316</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9869872515871966</v>
+        <v>0.9877230871313823</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1796</v>
@@ -3724,19 +3724,19 @@
         <v>1876375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1862964</v>
+        <v>1861951</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1886238</v>
+        <v>1886654</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9823588419727082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9753378028299609</v>
+        <v>0.9748072023140666</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.987522334417352</v>
+        <v>0.9877404872492426</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>7269</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3045</v>
+        <v>3103</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13597</v>
+        <v>14487</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008860934097333635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003711371560106566</v>
+        <v>0.003782968737074931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01657442329114962</v>
+        <v>0.01765896439136157</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3849,19 +3849,19 @@
         <v>13692</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7733</v>
+        <v>7501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24329</v>
+        <v>22753</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01777869283731969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01004158683427909</v>
+        <v>0.009740297305670323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03159117353158633</v>
+        <v>0.02954510123340831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3870,19 +3870,19 @@
         <v>20961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12743</v>
+        <v>13341</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32330</v>
+        <v>32647</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01317895272570332</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008011902815836205</v>
+        <v>0.008388289890136808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02032736946205862</v>
+        <v>0.02052621438945756</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>813093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>806765</v>
+        <v>805875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>817317</v>
+        <v>817259</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9911390659026663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9834255767088501</v>
+        <v>0.9823410356086382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9962886284398934</v>
+        <v>0.996217031262925</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>715</v>
@@ -3920,19 +3920,19 @@
         <v>756425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>745788</v>
+        <v>747364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>762384</v>
+        <v>762616</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9822213071626803</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9684088264684132</v>
+        <v>0.9704548987665907</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.989958413165721</v>
+        <v>0.9902597026943293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1492</v>
@@ -3941,19 +3941,19 @@
         <v>1569518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1558149</v>
+        <v>1557832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1577736</v>
+        <v>1577138</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9868210472742966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9796726305379413</v>
+        <v>0.9794737856105423</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9919880971841638</v>
+        <v>0.9916117101098632</v>
       </c>
     </row>
     <row r="12">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7084</v>
+        <v>6934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004035032980266182</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01400538098713518</v>
+        <v>0.0137089220449451</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -4066,19 +4066,19 @@
         <v>14587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7973</v>
+        <v>8046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24250</v>
+        <v>24457</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03011510068364553</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01646048821518746</v>
+        <v>0.01660984002213457</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05006318102592038</v>
+        <v>0.05049173160128734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4087,19 +4087,19 @@
         <v>16628</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10137</v>
+        <v>9380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27320</v>
+        <v>26502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01679301548794116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01023734432255771</v>
+        <v>0.009473093396765241</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02759092597591982</v>
+        <v>0.02676467246795512</v>
       </c>
     </row>
     <row r="14">
@@ -4116,7 +4116,7 @@
         <v>503762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498719</v>
+        <v>498869</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>505803</v>
@@ -4125,7 +4125,7 @@
         <v>0.9959649670197338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9859946190128649</v>
+        <v>0.9862910779550549</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4137,19 +4137,19 @@
         <v>469798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>460135</v>
+        <v>459928</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>476412</v>
+        <v>476339</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9698848993163545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9499368189740797</v>
+        <v>0.9495082683987124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9835395117848125</v>
+        <v>0.9833901599778654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>905</v>
@@ -4158,19 +4158,19 @@
         <v>973560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>962868</v>
+        <v>963686</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>980051</v>
+        <v>980808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9832069845120588</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9724090740240802</v>
+        <v>0.9732353275320449</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9897626556774423</v>
+        <v>0.9905269066032347</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>46024</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33329</v>
+        <v>32624</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62709</v>
+        <v>59858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01370346227187023</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009923685719142556</v>
+        <v>0.009713795023692223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01867141804508742</v>
+        <v>0.01782257159505471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -4283,19 +4283,19 @@
         <v>74382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57399</v>
+        <v>58971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92487</v>
+        <v>94312</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02117471966170608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01634016787710748</v>
+        <v>0.01678750994029093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02632888577283992</v>
+        <v>0.0268482420264761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -4304,19 +4304,19 @@
         <v>120406</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100042</v>
+        <v>100432</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144400</v>
+        <v>143163</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01752292082620879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01455927322181885</v>
+        <v>0.01461606064358598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02101479061839062</v>
+        <v>0.0208347721510419</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3312542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3295857</v>
+        <v>3298708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3325237</v>
+        <v>3325942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9862965377281298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9813285819549125</v>
+        <v>0.9821774284049453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900763142808574</v>
+        <v>0.9902862049763074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3241</v>
@@ -4354,19 +4354,19 @@
         <v>3438381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3420276</v>
+        <v>3418451</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3455364</v>
+        <v>3453792</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.978825280338294</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.97367111422716</v>
+        <v>0.973151757973524</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9836598321228924</v>
+        <v>0.9832124900597091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6396</v>
@@ -4375,19 +4375,19 @@
         <v>6750924</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6726930</v>
+        <v>6728167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6771288</v>
+        <v>6770898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9824770791737912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9789852093816094</v>
+        <v>0.9791652278489581</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9854407267781812</v>
+        <v>0.985383939356414</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>14311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7744</v>
+        <v>7805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24173</v>
+        <v>24731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02887355687167581</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01562442930500523</v>
+        <v>0.01574612757516222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04877026100067208</v>
+        <v>0.04989534799829219</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -4740,19 +4740,19 @@
         <v>18951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13141</v>
+        <v>11824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28290</v>
+        <v>27972</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03056131644718535</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02119187352343536</v>
+        <v>0.01906767531616901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04562099569834491</v>
+        <v>0.04510808397389821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -4761,19 +4761,19 @@
         <v>33263</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23768</v>
+        <v>23328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46612</v>
+        <v>45467</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02981156437959913</v>
+        <v>0.02981156437959914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02130193812374012</v>
+        <v>0.02090766104647159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04177564826586482</v>
+        <v>0.04074983383570382</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>481346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>471484</v>
+        <v>470926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487913</v>
+        <v>487852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9711264431283241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9512297389993278</v>
+        <v>0.9501046520017078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9843755706949948</v>
+        <v>0.9842538724248378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>829</v>
@@ -4811,19 +4811,19 @@
         <v>601160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>591821</v>
+        <v>592139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>606970</v>
+        <v>608287</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9694386835528147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9543790043016548</v>
+        <v>0.9548919160261012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9788081264765646</v>
+        <v>0.980932324683831</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1268</v>
@@ -4832,19 +4832,19 @@
         <v>1082505</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1069156</v>
+        <v>1070301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1092000</v>
+        <v>1092440</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9701884356204008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9582243517341356</v>
+        <v>0.9592501661642964</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9786980618762597</v>
+        <v>0.9790923389535287</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>10530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4621</v>
+        <v>4607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21702</v>
+        <v>20814</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0109671926643437</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004812594614413033</v>
+        <v>0.0047980638630154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0226029976038721</v>
+        <v>0.02167781809382889</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4957,19 +4957,19 @@
         <v>8880</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4658</v>
+        <v>4711</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15717</v>
+        <v>16172</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007969997048923922</v>
+        <v>0.007969997048923923</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004180635619674209</v>
+        <v>0.004227759655241608</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01410594944723828</v>
+        <v>0.01451365155275876</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -4978,19 +4978,19 @@
         <v>19410</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11337</v>
+        <v>11762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30366</v>
+        <v>31392</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.009357274518319345</v>
+        <v>0.009357274518319343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005465060784566918</v>
+        <v>0.005670257053000994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01463887478744244</v>
+        <v>0.01513321056528654</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>949607</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>938435</v>
+        <v>939323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>955516</v>
+        <v>955530</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9890328073356563</v>
+        <v>0.9890328073356561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9773970023961278</v>
+        <v>0.9783221819061709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9951874053855869</v>
+        <v>0.9952019361369847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1592</v>
@@ -5028,19 +5028,19 @@
         <v>1105347</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1098510</v>
+        <v>1098055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1109569</v>
+        <v>1109516</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9920300029510761</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9858940505527615</v>
+        <v>0.985486348447241</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958193643803258</v>
+        <v>0.9957722403447584</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2493</v>
@@ -5049,19 +5049,19 @@
         <v>2054953</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2043997</v>
+        <v>2042971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2063026</v>
+        <v>2062601</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9906427254816806</v>
+        <v>0.9906427254816804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9853611252125578</v>
+        <v>0.9848667894347134</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9945349392154331</v>
+        <v>0.9943297429469989</v>
       </c>
     </row>
     <row r="9">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5184</v>
+        <v>5109</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001392633834642915</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.004953770403412195</v>
+        <v>0.004881686862017369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5174,19 +5174,19 @@
         <v>10315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5968</v>
+        <v>5914</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17220</v>
+        <v>16784</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00985429776062096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00570125876160609</v>
+        <v>0.005649576338698732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01645008527966929</v>
+        <v>0.01603427619709381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -5195,19 +5195,19 @@
         <v>11773</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7325</v>
+        <v>7265</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18321</v>
+        <v>18968</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005624086064445435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003499135506591457</v>
+        <v>0.003470444049063123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008752361239182712</v>
+        <v>0.009061366615275811</v>
       </c>
     </row>
     <row r="11">
@@ -5224,7 +5224,7 @@
         <v>1045022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1041295</v>
+        <v>1041370</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1046479</v>
@@ -5233,7 +5233,7 @@
         <v>0.9986073661653571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9950462295965878</v>
+        <v>0.9951183131379826</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5245,19 +5245,19 @@
         <v>1036471</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1029566</v>
+        <v>1030002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1040818</v>
+        <v>1040872</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9901457022393789</v>
+        <v>0.990145702239379</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9835499147203304</v>
+        <v>0.9839657238029066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9942987412383938</v>
+        <v>0.9943504236613012</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2525</v>
@@ -5266,19 +5266,19 @@
         <v>2081492</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2074944</v>
+        <v>2074297</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2085940</v>
+        <v>2086000</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9943759139355546</v>
+        <v>0.9943759139355545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9912476387608169</v>
+        <v>0.9909386333847239</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9965008644934085</v>
+        <v>0.9965295559509368</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>10621</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6186</v>
+        <v>5532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18097</v>
+        <v>18256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01090659770784951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00635267865707023</v>
+        <v>0.005680552940512429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01858427083689001</v>
+        <v>0.01874728300444741</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -5391,19 +5391,19 @@
         <v>9457</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5075</v>
+        <v>5177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16448</v>
+        <v>15959</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01041802963803562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005590179619613443</v>
+        <v>0.005702896782997272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01811825372824186</v>
+        <v>0.01757962157446964</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -5412,19 +5412,19 @@
         <v>20078</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13358</v>
+        <v>13888</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29701</v>
+        <v>30156</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01067088342204702</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007099256120324702</v>
+        <v>0.007381087439602255</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01578488611911733</v>
+        <v>0.01602700724386259</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>963177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>955701</v>
+        <v>955542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>967612</v>
+        <v>968266</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9890934022921505</v>
+        <v>0.9890934022921504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9814157291631099</v>
+        <v>0.9812527169955525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9936473213429297</v>
+        <v>0.9943194470594875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1306</v>
@@ -5462,19 +5462,19 @@
         <v>898333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>891342</v>
+        <v>891831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>902715</v>
+        <v>902613</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9895819703619643</v>
+        <v>0.9895819703619644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9818817462717582</v>
+        <v>0.98242037842553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9944098203803867</v>
+        <v>0.9942971032170027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2238</v>
@@ -5483,19 +5483,19 @@
         <v>1861511</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1851888</v>
+        <v>1851433</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1868231</v>
+        <v>1867701</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9893291165779531</v>
+        <v>0.989329116577953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9842151138808826</v>
+        <v>0.9839729927561368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9929007438796752</v>
+        <v>0.9926189125603977</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>36920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25550</v>
+        <v>26199</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51937</v>
+        <v>51825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01062106201848066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007350262595126455</v>
+        <v>0.007536825670890334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01494130274572371</v>
+        <v>0.01490909287126248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -5608,19 +5608,19 @@
         <v>47605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37451</v>
+        <v>36366</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60808</v>
+        <v>60048</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01290475302241478</v>
+        <v>0.01290475302241479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01015240620325015</v>
+        <v>0.009858181964410859</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01648392458412487</v>
+        <v>0.01627809410681416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -5629,19 +5629,19 @@
         <v>84524</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67450</v>
+        <v>69495</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103571</v>
+        <v>104915</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01179682720797438</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009413799526445181</v>
+        <v>0.009699294645103322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01445510072286817</v>
+        <v>0.01464279604099949</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3439151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3424134</v>
+        <v>3424246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3450521</v>
+        <v>3449872</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9893789379815194</v>
+        <v>0.9893789379815193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9850586972542761</v>
+        <v>0.9850909071287374</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9926497374048735</v>
+        <v>0.9924631743291095</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5225</v>
@@ -5679,19 +5679,19 @@
         <v>3641309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3628106</v>
+        <v>3628866</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3651463</v>
+        <v>3652548</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9870952469775851</v>
+        <v>0.9870952469775853</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9835160754158753</v>
+        <v>0.983721905893186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9898475937967497</v>
+        <v>0.9901418180355898</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8524</v>
@@ -5700,19 +5700,19 @@
         <v>7080461</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7061414</v>
+        <v>7060070</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7097535</v>
+        <v>7095490</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9882031727920256</v>
+        <v>0.9882031727920255</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9855448992771318</v>
+        <v>0.9853572039590006</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9905862004735548</v>
+        <v>0.9903007053548967</v>
       </c>
     </row>
     <row r="18">
